--- a/biology/Zoologie/Atheris_chlorechis/Atheris_chlorechis.xlsx
+++ b/biology/Zoologie/Atheris_chlorechis/Atheris_chlorechis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Atheris chlorechis ou vipère des buissons est une espèce de serpents de la famille des Viperidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Atheris chlorechis ou vipère des buissons est une espèce de serpents de la famille des Viperidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 en Guinée ;
 en Sierra Leone ;
 au Liberia ;
@@ -550,7 +564,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette vipère vit dans les arbres des forêts denses, à un ou deux mètres du sol.
 </t>
@@ -581,7 +597,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce reptile atteint 50 centimètres, au plus 70 centimètres. Il est de couleur verte, avec de petits points jaunes, à l'âge adulte ; les jeunes étant de couleur moins vive, avec des taches marron.
 </t>
@@ -612,7 +630,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette vipère se nourrit de petits rongeurs et de reptiles.
 </t>
@@ -643,7 +663,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce reptile donne naissance en mars-avril à une portée de 6 à 9 petits mesurant 1 à 2 centimètres.
 </t>
@@ -674,7 +696,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Pel, 1851 : Over de jagt aan de Goudkust, volgens eene tienjarige eigene ondervinding. Nederlands tijdschrift Jagtkunde, vol. 1, p. 149-173.</t>
         </is>
